--- a/sputnik/personal/cel/cel44.xlsx
+++ b/sputnik/personal/cel/cel44.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Оплачено</t>
   </si>
@@ -171,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -211,6 +211,8 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -518,10 +520,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A9"/>
+      <selection activeCell="A10" sqref="A10:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -633,10 +635,27 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
+      <c r="A10" s="17">
+        <v>43952</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="11">
+        <v>1000</v>
+      </c>
       <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
+        <v>44053</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/cel/cel44.xlsx
+++ b/sputnik/personal/cel/cel44.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Оплачено</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>Оплачен целевой взнос на ремонт общей подъездной дороги</t>
+  </si>
+  <si>
+    <t>Начислен целевой взнос на ремонт дорог на территории СНТ_2021</t>
+  </si>
+  <si>
+    <t>Начислен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
   </si>
 </sst>
 </file>
@@ -171,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -212,7 +218,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -520,10 +525,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:D11"/>
+      <selection activeCell="A11" sqref="A11:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -647,15 +652,82 @@
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
+      <c r="A11" s="17">
         <v>44053</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="1">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11">
         <v>1000</v>
       </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>44317</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <v>44317</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1619</v>
+      </c>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/cel/cel44.xlsx
+++ b/sputnik/personal/cel/cel44.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Оплачено</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t>Начислен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
+  </si>
+  <si>
+    <t>Оплата целевой взнос на ремонт дорог на территории СНТ_2021</t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на приобретение мини трактора</t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
   </si>
 </sst>
 </file>
@@ -528,7 +537,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:D20"/>
+      <selection activeCell="A15" sqref="A15:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -646,10 +655,10 @@
       <c r="B10" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="13">
         <v>1000</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
@@ -658,8 +667,8 @@
       <c r="B11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13">
         <v>1000</v>
       </c>
     </row>
@@ -670,10 +679,10 @@
       <c r="B12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="13">
         <v>1000</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="13"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
@@ -682,52 +691,70 @@
       <c r="B13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="11">
-        <v>1619</v>
-      </c>
-      <c r="D13" s="11"/>
+      <c r="C13" s="13">
+        <v>170</v>
+      </c>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="A14" s="17">
+        <v>44396</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13">
+        <v>1000</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="A15" s="17">
+        <v>44406</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13">
+        <v>1449</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="A16" s="17">
+        <v>44406</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13">
+        <v>170</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
